--- a/report/spending-time/by-LikeRacingGames/NonParametricAnalysis.xlsx
+++ b/report/spending-time/by-LikeRacingGames/NonParametricAnalysis.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
   <si>
-    <t>Summary of Kruskal-Wallis rank sum test for Spending Time (min) by Liking Racing Games</t>
+    <t>Summary of Kruskal-Wallis rank sum test for Spending Time (min) by LikeRacingGames</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -59,10 +59,10 @@
     <t>no - yes</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Spending Time (min) by Liking Racing Games</t>
-  </si>
-  <si>
-    <t>Wilcoxon Analysis for Spending Time (min) by Liking Racing Games in LikeRacingGames between no:yes</t>
+    <t>Summary of Wilcoxon Analysis for Spending Time (min) by LikeRacingGames</t>
+  </si>
+  <si>
+    <t>Wilcoxon Analysis for Spending Time (min) by LikeRacingGames in LikeRacingGames between no:yes</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -161,7 +161,7 @@
     <t>LikeMMORPGGames</t>
   </si>
   <si>
-    <t>LikeShooterSames</t>
+    <t>LikeShooterGames</t>
   </si>
   <si>
     <t>LikeSimulationGames</t>
